--- a/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `PractitionerRole.availability` 0..* `Availability`
 Following are the generation technical comments:
-Element `PractitionerRole.availability` is mapped to FHIR R4 structure `PractitionerRole`, but has no target element specified.</t>
+Element `PractitionerRole.availability` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:PractitionerRole</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `PractitionerRole.availability` 0..* `Availability`
 Following are the generation technical comments:
-Element `PractitionerRole.availability` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+Element `PractitionerRole.availability` has a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -476,6 +476,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.daysOfWeek</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:daysOfWeek.value[x]</t>
   </si>
   <si>
@@ -519,6 +522,9 @@
     <t>Extension.extension:availableTime.extension:allDay.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.allDay</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:allDay.value[x]</t>
   </si>
   <si>
@@ -553,6 +559,9 @@
     <t>Extension.extension:availableTime.extension:availableStartTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableStartTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableStartTime.value[x]</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
     <t>Extension.extension:availableTime.extension:availableEndTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableEndTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableEndTime.value[x]</t>
   </si>
   <si>
@@ -646,6 +658,9 @@
     <t>Extension.extension:notAvailableTime.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.description</t>
+  </si>
+  <si>
     <t>Extension.extension:notAvailableTime.extension:description.value[x]</t>
   </si>
   <si>
@@ -671,6 +686,9 @@
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.during</t>
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.value[x]</t>
@@ -2667,7 +2685,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2729,10 +2747,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2755,7 +2773,7 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>138</v>
@@ -2788,13 +2806,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2832,13 +2850,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2863,14 +2881,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2939,7 +2957,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3042,7 +3060,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3147,7 +3165,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3190,7 +3208,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3252,10 +3270,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3278,13 +3296,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3355,13 +3373,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3386,16 +3404,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3464,7 +3482,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3567,7 +3585,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3672,7 +3690,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3715,7 +3733,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3777,10 +3795,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3803,16 +3821,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3882,13 +3900,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3913,16 +3931,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3991,7 +4009,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4094,7 +4112,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4199,7 +4217,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4242,7 +4260,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4304,10 +4322,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4330,16 +4348,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4409,7 +4427,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4514,7 +4532,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4540,7 +4558,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4617,13 +4635,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4648,14 +4666,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4724,7 +4742,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4827,7 +4845,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4930,13 +4948,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4961,16 +4979,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5039,7 +5057,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5142,7 +5160,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5247,7 +5265,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5290,7 +5308,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5352,10 +5370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5381,13 +5399,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5457,13 +5475,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5488,14 +5506,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5564,7 +5582,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5667,7 +5685,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5772,7 +5790,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5815,7 +5833,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5877,10 +5895,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5903,13 +5921,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5980,7 +5998,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6023,7 +6041,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6085,7 +6103,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6111,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6319,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -487,15 +487,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1051,8 +1042,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2806,13 +2797,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2850,13 +2841,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2881,14 +2872,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2957,7 +2948,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3060,7 +3051,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3165,7 +3156,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3208,7 +3199,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3270,7 +3261,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>149</v>
@@ -3296,13 +3287,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3373,13 +3364,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3404,16 +3395,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3482,7 +3473,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3585,7 +3576,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3690,7 +3681,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3733,7 +3724,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3795,7 +3786,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>149</v>
@@ -3821,16 +3812,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3900,13 +3891,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3931,16 +3922,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4009,7 +4000,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4112,7 +4103,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4217,7 +4208,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4260,7 +4251,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4322,7 +4313,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>149</v>
@@ -4348,16 +4339,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4427,7 +4418,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4532,7 +4523,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4558,7 +4549,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4635,13 +4626,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4666,14 +4657,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4742,7 +4733,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4845,7 +4836,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4948,13 +4939,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4979,16 +4970,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5160,7 +5151,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5265,7 +5256,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5308,7 +5299,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5370,7 +5361,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -5399,13 +5390,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5475,13 +5466,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5506,14 +5497,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5582,7 +5573,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5685,7 +5676,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5790,7 +5781,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5833,7 +5824,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5895,7 +5886,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>149</v>
@@ -5921,13 +5912,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5998,7 +5989,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6041,7 +6032,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6103,7 +6094,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6129,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6337,7 +6328,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -487,6 +487,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1042,8 +1051,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2797,13 +2806,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2841,13 +2850,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2872,14 +2881,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2948,7 +2957,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3051,7 +3060,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3156,7 +3165,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3199,7 +3208,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3261,7 +3270,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>149</v>
@@ -3287,13 +3296,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3364,13 +3373,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3395,16 +3404,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3473,7 +3482,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3576,7 +3585,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3681,7 +3690,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3724,7 +3733,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3786,7 +3795,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>149</v>
@@ -3812,16 +3821,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3891,13 +3900,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3922,16 +3931,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4000,7 +4009,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4103,7 +4112,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4208,7 +4217,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4251,7 +4260,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4313,7 +4322,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>149</v>
@@ -4339,16 +4348,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4418,7 +4427,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4523,7 +4532,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4549,7 +4558,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4626,13 +4635,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4657,14 +4666,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4742,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4836,7 +4845,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4939,13 +4948,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4970,16 +4979,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5151,7 +5160,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5256,7 +5265,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5299,7 +5308,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5370,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -5390,13 +5399,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5466,13 +5475,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5497,14 +5506,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5573,7 +5582,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5676,7 +5685,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5781,7 +5790,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5824,7 +5833,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5886,7 +5895,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>149</v>
@@ -5912,13 +5921,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5989,7 +5998,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6032,7 +6041,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6094,7 +6103,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6120,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6328,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>
